--- a/inputs/table_for_user.xlsx
+++ b/inputs/table_for_user.xlsx
@@ -20,6 +20,9 @@
     <t xml:space="preserve">Method</t>
   </si>
   <si>
+    <t xml:space="preserve">Defect location</t>
+  </si>
+  <si>
     <t xml:space="preserve">Volume(cc)</t>
   </si>
   <si>
@@ -32,13 +35,10 @@
     <t xml:space="preserve">Picture of defect</t>
   </si>
   <si>
-    <t xml:space="preserve">Optical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;img src = '2020_03_20_00_40_32.png' height = '52' &gt;&lt;/img&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;img src = '2020_03_20_00_41_15.png' height = '52' &gt;&lt;/img&gt;</t>
+    <t xml:space="preserve">30cm from the end, at the pipe bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;img src = '2020_03_21_16_18_53.png' height = '52' &gt;&lt;/img&gt;</t>
   </si>
 </sst>
 </file>
@@ -395,62 +395,28 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>43902</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2</v>
+        <v>43911</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0.76</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>43910</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>43910</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F4" t="s">
+        <v>9.94</v>
+      </c>
+      <c r="F2" t="n">
+        <v>62.54</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
